--- a/data/nzd0261/nzd0261.xlsx
+++ b/data/nzd0261/nzd0261.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL304"/>
+  <dimension ref="A1:AL309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30300,7 +30300,9 @@
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>411.1733333333333</v>
+      </c>
       <c r="M303" t="inlineStr"/>
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr"/>
@@ -30346,10 +30348,16 @@
       <c r="AG303" t="n">
         <v>372.5107692307692</v>
       </c>
-      <c r="AH303" t="inlineStr"/>
-      <c r="AI303" t="inlineStr"/>
+      <c r="AH303" t="n">
+        <v>379.23</v>
+      </c>
+      <c r="AI303" t="n">
+        <v>384.48</v>
+      </c>
       <c r="AJ303" t="inlineStr"/>
-      <c r="AK303" t="inlineStr"/>
+      <c r="AK303" t="n">
+        <v>369.8118181818182</v>
+      </c>
       <c r="AL303" t="inlineStr">
         <is>
           <t>L8</t>
@@ -30378,7 +30386,9 @@
       <c r="G304" t="n">
         <v>362.2233333333333</v>
       </c>
-      <c r="H304" t="inlineStr"/>
+      <c r="H304" t="n">
+        <v>358.5</v>
+      </c>
       <c r="I304" t="n">
         <v>352.8633333333333</v>
       </c>
@@ -30448,6 +30458,582 @@
         </is>
       </c>
     </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>377.76</v>
+      </c>
+      <c r="C305" t="n">
+        <v>355.6781818181818</v>
+      </c>
+      <c r="D305" t="n">
+        <v>367.7366666666667</v>
+      </c>
+      <c r="E305" t="inlineStr"/>
+      <c r="F305" t="n">
+        <v>372.2607692307692</v>
+      </c>
+      <c r="G305" t="n">
+        <v>367.4466666666667</v>
+      </c>
+      <c r="H305" t="n">
+        <v>365.6581818181818</v>
+      </c>
+      <c r="I305" t="n">
+        <v>373.7766666666667</v>
+      </c>
+      <c r="J305" t="n">
+        <v>370.67</v>
+      </c>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>374.5866666666667</v>
+      </c>
+      <c r="M305" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="N305" t="n">
+        <v>370.36</v>
+      </c>
+      <c r="O305" t="n">
+        <v>377.08</v>
+      </c>
+      <c r="P305" t="n">
+        <v>390.26</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>381.59</v>
+      </c>
+      <c r="R305" t="n">
+        <v>384.885</v>
+      </c>
+      <c r="S305" t="n">
+        <v>372.5307692307693</v>
+      </c>
+      <c r="T305" t="n">
+        <v>357.25</v>
+      </c>
+      <c r="U305" t="n">
+        <v>376.24</v>
+      </c>
+      <c r="V305" t="n">
+        <v>368.32</v>
+      </c>
+      <c r="W305" t="n">
+        <v>384.725</v>
+      </c>
+      <c r="X305" t="n">
+        <v>373.38</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>369</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>368.42</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>365.13</v>
+      </c>
+      <c r="AB305" t="n">
+        <v>376.16</v>
+      </c>
+      <c r="AC305" t="n">
+        <v>382.4307692307692</v>
+      </c>
+      <c r="AD305" t="n">
+        <v>381.9733333333333</v>
+      </c>
+      <c r="AE305" t="n">
+        <v>368.54</v>
+      </c>
+      <c r="AF305" t="n">
+        <v>367.4</v>
+      </c>
+      <c r="AG305" t="n">
+        <v>363.4107692307692</v>
+      </c>
+      <c r="AH305" t="n">
+        <v>346.64</v>
+      </c>
+      <c r="AI305" t="n">
+        <v>355.1</v>
+      </c>
+      <c r="AJ305" t="n">
+        <v>355.47</v>
+      </c>
+      <c r="AK305" t="n">
+        <v>340.9681818181818</v>
+      </c>
+      <c r="AL305" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>370.5433333333333</v>
+      </c>
+      <c r="C306" t="n">
+        <v>363.7436363636364</v>
+      </c>
+      <c r="D306" t="n">
+        <v>353.9744444444444</v>
+      </c>
+      <c r="E306" t="n">
+        <v>359.0136363636364</v>
+      </c>
+      <c r="F306" t="n">
+        <v>353.2969230769231</v>
+      </c>
+      <c r="G306" t="n">
+        <v>344.4944444444445</v>
+      </c>
+      <c r="H306" t="n">
+        <v>343.0636363636364</v>
+      </c>
+      <c r="I306" t="n">
+        <v>342.4544444444444</v>
+      </c>
+      <c r="J306" t="n">
+        <v>358.8938095238095</v>
+      </c>
+      <c r="K306" t="n">
+        <v>372.6833333333333</v>
+      </c>
+      <c r="L306" t="n">
+        <v>374.8344444444445</v>
+      </c>
+      <c r="M306" t="n">
+        <v>359.17</v>
+      </c>
+      <c r="N306" t="n">
+        <v>364.23</v>
+      </c>
+      <c r="O306" t="n">
+        <v>360.6066666666667</v>
+      </c>
+      <c r="P306" t="n">
+        <v>375.71</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>393.8828571428572</v>
+      </c>
+      <c r="R306" t="n">
+        <v>373.415</v>
+      </c>
+      <c r="S306" t="n">
+        <v>389.6869230769231</v>
+      </c>
+      <c r="T306" t="n">
+        <v>366.5233333333333</v>
+      </c>
+      <c r="U306" t="n">
+        <v>355.5857142857143</v>
+      </c>
+      <c r="V306" t="n">
+        <v>377.5333333333333</v>
+      </c>
+      <c r="W306" t="n">
+        <v>388.135</v>
+      </c>
+      <c r="X306" t="n">
+        <v>387.4166666666667</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>376.3466666666666</v>
+      </c>
+      <c r="Z306" t="n">
+        <v>374.3128571428572</v>
+      </c>
+      <c r="AA306" t="n">
+        <v>375.7133333333333</v>
+      </c>
+      <c r="AB306" t="n">
+        <v>370.93</v>
+      </c>
+      <c r="AC306" t="n">
+        <v>387.2869230769231</v>
+      </c>
+      <c r="AD306" t="n">
+        <v>386.6822222222222</v>
+      </c>
+      <c r="AE306" t="n">
+        <v>371.8928571428572</v>
+      </c>
+      <c r="AF306" t="n">
+        <v>357.3866666666667</v>
+      </c>
+      <c r="AG306" t="n">
+        <v>359.4669230769231</v>
+      </c>
+      <c r="AH306" t="n">
+        <v>336.16</v>
+      </c>
+      <c r="AI306" t="n">
+        <v>331.26</v>
+      </c>
+      <c r="AJ306" t="n">
+        <v>322.5366666666667</v>
+      </c>
+      <c r="AK306" t="n">
+        <v>332.5536363636364</v>
+      </c>
+      <c r="AL306" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>368.4966666666666</v>
+      </c>
+      <c r="C307" t="n">
+        <v>370.1090909090909</v>
+      </c>
+      <c r="D307" t="n">
+        <v>377.2688888888889</v>
+      </c>
+      <c r="E307" t="n">
+        <v>371.379090909091</v>
+      </c>
+      <c r="F307" t="n">
+        <v>360.0792307692308</v>
+      </c>
+      <c r="G307" t="n">
+        <v>365.7088888888889</v>
+      </c>
+      <c r="H307" t="n">
+        <v>353.0590909090909</v>
+      </c>
+      <c r="I307" t="n">
+        <v>359.3688888888889</v>
+      </c>
+      <c r="J307" t="n">
+        <v>367.5404761904762</v>
+      </c>
+      <c r="K307" t="n">
+        <v>364.0066666666667</v>
+      </c>
+      <c r="L307" t="n">
+        <v>373.1288888888889</v>
+      </c>
+      <c r="M307" t="n">
+        <v>367.96</v>
+      </c>
+      <c r="N307" t="n">
+        <v>375.33</v>
+      </c>
+      <c r="O307" t="n">
+        <v>395.0933333333333</v>
+      </c>
+      <c r="P307" t="n">
+        <v>385.52</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>375.8528571428572</v>
+      </c>
+      <c r="R307" t="n">
+        <v>371.86</v>
+      </c>
+      <c r="S307" t="n">
+        <v>377.2092307692308</v>
+      </c>
+      <c r="T307" t="n">
+        <v>372.9166666666667</v>
+      </c>
+      <c r="U307" t="n">
+        <v>388.1457142857143</v>
+      </c>
+      <c r="V307" t="n">
+        <v>372.5966666666667</v>
+      </c>
+      <c r="W307" t="n">
+        <v>365.73</v>
+      </c>
+      <c r="X307" t="n">
+        <v>375.2433333333333</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>366.1633333333334</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>382.0728571428572</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>381.7266666666667</v>
+      </c>
+      <c r="AB307" t="n">
+        <v>376.53</v>
+      </c>
+      <c r="AC307" t="n">
+        <v>378.2192307692308</v>
+      </c>
+      <c r="AD307" t="n">
+        <v>372.9944444444445</v>
+      </c>
+      <c r="AE307" t="n">
+        <v>367.4528571428572</v>
+      </c>
+      <c r="AF307" t="n">
+        <v>362.6133333333333</v>
+      </c>
+      <c r="AG307" t="n">
+        <v>352.4792307692308</v>
+      </c>
+      <c r="AH307" t="n">
+        <v>366.17</v>
+      </c>
+      <c r="AI307" t="n">
+        <v>367.07</v>
+      </c>
+      <c r="AJ307" t="n">
+        <v>371.5533333333333</v>
+      </c>
+      <c r="AK307" t="n">
+        <v>348.5590909090909</v>
+      </c>
+      <c r="AL307" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>370.5866666666667</v>
+      </c>
+      <c r="C308" t="n">
+        <v>360.3509090909091</v>
+      </c>
+      <c r="D308" t="n">
+        <v>354.2555555555556</v>
+      </c>
+      <c r="E308" t="n">
+        <v>363.550909090909</v>
+      </c>
+      <c r="F308" t="n">
+        <v>359.4238461538461</v>
+      </c>
+      <c r="G308" t="n">
+        <v>357.5255555555556</v>
+      </c>
+      <c r="H308" t="n">
+        <v>353.370909090909</v>
+      </c>
+      <c r="I308" t="n">
+        <v>346.9755555555556</v>
+      </c>
+      <c r="J308" t="n">
+        <v>351.8519047619047</v>
+      </c>
+      <c r="K308" t="n">
+        <v>364.8766666666667</v>
+      </c>
+      <c r="L308" t="n">
+        <v>356.9155555555556</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
+      <c r="N308" t="inlineStr"/>
+      <c r="O308" t="n">
+        <v>360.2633333333333</v>
+      </c>
+      <c r="P308" t="n">
+        <v>368.56</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>385.5414285714286</v>
+      </c>
+      <c r="R308" t="n">
+        <v>383.23</v>
+      </c>
+      <c r="S308" t="n">
+        <v>384.0238461538461</v>
+      </c>
+      <c r="T308" t="n">
+        <v>362.1066666666667</v>
+      </c>
+      <c r="U308" t="n">
+        <v>360.5028571428572</v>
+      </c>
+      <c r="V308" t="n">
+        <v>371.7866666666667</v>
+      </c>
+      <c r="W308" t="n">
+        <v>374.85</v>
+      </c>
+      <c r="X308" t="n">
+        <v>384.1033333333334</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>375.6833333333333</v>
+      </c>
+      <c r="Z308" t="n">
+        <v>378.9914285714286</v>
+      </c>
+      <c r="AA308" t="n">
+        <v>374.9166666666667</v>
+      </c>
+      <c r="AB308" t="n">
+        <v>378.57</v>
+      </c>
+      <c r="AC308" t="n">
+        <v>389.1738461538461</v>
+      </c>
+      <c r="AD308" t="n">
+        <v>390.5677777777778</v>
+      </c>
+      <c r="AE308" t="n">
+        <v>385.6914285714286</v>
+      </c>
+      <c r="AF308" t="n">
+        <v>376.5033333333333</v>
+      </c>
+      <c r="AG308" t="n">
+        <v>365.3638461538461</v>
+      </c>
+      <c r="AH308" t="inlineStr"/>
+      <c r="AI308" t="n">
+        <v>341</v>
+      </c>
+      <c r="AJ308" t="n">
+        <v>333.1233333333333</v>
+      </c>
+      <c r="AK308" t="n">
+        <v>332.3309090909091</v>
+      </c>
+      <c r="AL308" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-15 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr"/>
+      <c r="C309" t="inlineStr"/>
+      <c r="D309" t="inlineStr"/>
+      <c r="E309" t="n">
+        <v>389.32</v>
+      </c>
+      <c r="F309" t="n">
+        <v>384.4684615384616</v>
+      </c>
+      <c r="G309" t="n">
+        <v>384.8755555555555</v>
+      </c>
+      <c r="H309" t="n">
+        <v>372.63</v>
+      </c>
+      <c r="I309" t="n">
+        <v>373.3255555555555</v>
+      </c>
+      <c r="J309" t="n">
+        <v>371.5819047619048</v>
+      </c>
+      <c r="K309" t="n">
+        <v>380.9666666666667</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
+      <c r="M309" t="n">
+        <v>396.55</v>
+      </c>
+      <c r="N309" t="n">
+        <v>394.48</v>
+      </c>
+      <c r="O309" t="inlineStr"/>
+      <c r="P309" t="n">
+        <v>397.64</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>395.2914285714286</v>
+      </c>
+      <c r="R309" t="n">
+        <v>391.23</v>
+      </c>
+      <c r="S309" t="n">
+        <v>399.4984615384615</v>
+      </c>
+      <c r="T309" t="n">
+        <v>380.7666666666667</v>
+      </c>
+      <c r="U309" t="n">
+        <v>396.6028571428572</v>
+      </c>
+      <c r="V309" t="n">
+        <v>388.2166666666667</v>
+      </c>
+      <c r="W309" t="n">
+        <v>384.23</v>
+      </c>
+      <c r="X309" t="n">
+        <v>393.7133333333334</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>371.5533333333333</v>
+      </c>
+      <c r="Z309" t="n">
+        <v>391.3814285714286</v>
+      </c>
+      <c r="AA309" t="n">
+        <v>388.9766666666667</v>
+      </c>
+      <c r="AB309" t="n">
+        <v>385.5</v>
+      </c>
+      <c r="AC309" t="n">
+        <v>367.0384615384616</v>
+      </c>
+      <c r="AD309" t="n">
+        <v>362.3777777777778</v>
+      </c>
+      <c r="AE309" t="inlineStr"/>
+      <c r="AF309" t="n">
+        <v>341.7233333333334</v>
+      </c>
+      <c r="AG309" t="n">
+        <v>341.6384615384616</v>
+      </c>
+      <c r="AH309" t="inlineStr"/>
+      <c r="AI309" t="n">
+        <v>340.27</v>
+      </c>
+      <c r="AJ309" t="n">
+        <v>358.8933333333333</v>
+      </c>
+      <c r="AK309" t="n">
+        <v>319.05</v>
+      </c>
+      <c r="AL309" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30459,7 +31045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B309"/>
+  <dimension ref="A1:B314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33557,6 +34143,56 @@
       </c>
       <c r="B309" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>-0.97</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-02-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
@@ -33725,28 +34361,28 @@
         <v>0.06950000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1833934129954441</v>
+        <v>-0.1036469008749434</v>
       </c>
       <c r="J2" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K2" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004694354490886621</v>
+        <v>0.001533243028955189</v>
       </c>
       <c r="M2" t="n">
-        <v>13.82368384272008</v>
+        <v>13.85119645424714</v>
       </c>
       <c r="N2" t="n">
-        <v>381.5015031537753</v>
+        <v>382.72843746679</v>
       </c>
       <c r="O2" t="n">
-        <v>19.53206346379653</v>
+        <v>19.56344646187859</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9677711431373</v>
+        <v>354.2333368344279</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -33802,28 +34438,28 @@
         <v>0.0698</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1898377550353269</v>
+        <v>-0.1192074026880265</v>
       </c>
       <c r="J3" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K3" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002708827234997213</v>
+        <v>0.001104896426458724</v>
       </c>
       <c r="M3" t="n">
-        <v>20.85238462957421</v>
+        <v>20.7100718103385</v>
       </c>
       <c r="N3" t="n">
-        <v>718.047771514817</v>
+        <v>710.5803847514144</v>
       </c>
       <c r="O3" t="n">
-        <v>26.79641340767113</v>
+        <v>26.65671369001465</v>
       </c>
       <c r="P3" t="n">
-        <v>348.8015163263807</v>
+        <v>348.1477864383142</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -33879,28 +34515,28 @@
         <v>0.052</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2222766126010843</v>
+        <v>0.2567519024490765</v>
       </c>
       <c r="J4" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K4" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006067900118634895</v>
+        <v>0.008304556244145833</v>
       </c>
       <c r="M4" t="n">
-        <v>15.54507894564247</v>
+        <v>15.43353569074499</v>
       </c>
       <c r="N4" t="n">
-        <v>435.4171124103322</v>
+        <v>431.2847365037836</v>
       </c>
       <c r="O4" t="n">
-        <v>20.86665072335118</v>
+        <v>20.76739599718231</v>
       </c>
       <c r="P4" t="n">
-        <v>347.3281859500985</v>
+        <v>347.0055006164723</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -33950,28 +34586,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.4268664231531358</v>
+        <v>0.4760870909109474</v>
       </c>
       <c r="J5" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K5" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02732203151841683</v>
+        <v>0.03434566185199983</v>
       </c>
       <c r="M5" t="n">
-        <v>14.44345072824229</v>
+        <v>14.41120590793684</v>
       </c>
       <c r="N5" t="n">
-        <v>348.2519163144093</v>
+        <v>348.3438199809705</v>
       </c>
       <c r="O5" t="n">
-        <v>18.66150895062908</v>
+        <v>18.66397117392144</v>
       </c>
       <c r="P5" t="n">
-        <v>344.8711010114482</v>
+        <v>344.4082895630639</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -34027,28 +34663,28 @@
         <v>0.0726</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09951417343870575</v>
+        <v>0.1659345922102504</v>
       </c>
       <c r="J6" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K6" t="n">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001623226510431119</v>
+        <v>0.004617925279742474</v>
       </c>
       <c r="M6" t="n">
-        <v>14.11689669838104</v>
+        <v>14.05098098611802</v>
       </c>
       <c r="N6" t="n">
-        <v>335.5109158623587</v>
+        <v>335.6810123076631</v>
       </c>
       <c r="O6" t="n">
-        <v>18.31695705793838</v>
+        <v>18.32159961105097</v>
       </c>
       <c r="P6" t="n">
-        <v>348.0660307197099</v>
+        <v>347.468355895967</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -34104,28 +34740,28 @@
         <v>0.0517</v>
       </c>
       <c r="I7" t="n">
-        <v>0.256896212983631</v>
+        <v>0.3007651063558279</v>
       </c>
       <c r="J7" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K7" t="n">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0104909130410894</v>
+        <v>0.01470856204773618</v>
       </c>
       <c r="M7" t="n">
-        <v>14.46111568566231</v>
+        <v>14.43521139434289</v>
       </c>
       <c r="N7" t="n">
-        <v>339.9190060151535</v>
+        <v>338.5487844878652</v>
       </c>
       <c r="O7" t="n">
-        <v>18.43689252599671</v>
+        <v>18.39969522812444</v>
       </c>
       <c r="P7" t="n">
-        <v>347.0306981099758</v>
+        <v>346.6233265693706</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -34181,28 +34817,28 @@
         <v>0.0607</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2690785400168644</v>
+        <v>0.3079466597195089</v>
       </c>
       <c r="J8" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K8" t="n">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008395187253303904</v>
+        <v>0.01142209555308749</v>
       </c>
       <c r="M8" t="n">
-        <v>16.39795865295552</v>
+        <v>16.24004349189557</v>
       </c>
       <c r="N8" t="n">
-        <v>468.7082686458342</v>
+        <v>461.0297234835958</v>
       </c>
       <c r="O8" t="n">
-        <v>21.64967132881777</v>
+        <v>21.47160272274978</v>
       </c>
       <c r="P8" t="n">
-        <v>342.4483059666314</v>
+        <v>342.0886707362388</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -34258,28 +34894,28 @@
         <v>0.0534</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3344917335431454</v>
+        <v>0.352111119497329</v>
       </c>
       <c r="J9" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K9" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01640704033101503</v>
+        <v>0.0187029439622739</v>
       </c>
       <c r="M9" t="n">
-        <v>15.53061860298037</v>
+        <v>15.45988415246814</v>
       </c>
       <c r="N9" t="n">
-        <v>367.9096572708965</v>
+        <v>364.1325940828823</v>
       </c>
       <c r="O9" t="n">
-        <v>19.1809712285613</v>
+        <v>19.08225862110883</v>
       </c>
       <c r="P9" t="n">
-        <v>346.2254455310592</v>
+        <v>346.061473951335</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -34329,28 +34965,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>0.5218122533121646</v>
+        <v>0.541420582379977</v>
       </c>
       <c r="J10" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K10" t="n">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0422232005273111</v>
+        <v>0.04698261629657319</v>
       </c>
       <c r="M10" t="n">
-        <v>14.3619880879429</v>
+        <v>14.212039595279</v>
       </c>
       <c r="N10" t="n">
-        <v>332.3333563824055</v>
+        <v>326.8711099379473</v>
       </c>
       <c r="O10" t="n">
-        <v>18.23001251734089</v>
+        <v>18.07957715041885</v>
       </c>
       <c r="P10" t="n">
-        <v>346.1633764823497</v>
+        <v>345.978567468094</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -34406,28 +35042,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8306313199987332</v>
+        <v>0.8514478205371153</v>
       </c>
       <c r="J11" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K11" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0840638903490406</v>
+        <v>0.09067481093534313</v>
       </c>
       <c r="M11" t="n">
-        <v>14.00974991037121</v>
+        <v>13.87049973729544</v>
       </c>
       <c r="N11" t="n">
-        <v>417.7467293984603</v>
+        <v>411.8002804399978</v>
       </c>
       <c r="O11" t="n">
-        <v>20.43885342670817</v>
+        <v>20.29286279557416</v>
       </c>
       <c r="P11" t="n">
-        <v>343.5870183197089</v>
+        <v>343.3971348704117</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -34483,28 +35119,28 @@
         <v>0.0541</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7880374669097288</v>
+        <v>0.8231467464768863</v>
       </c>
       <c r="J12" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K12" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07001722006675404</v>
+        <v>0.07799265108886022</v>
       </c>
       <c r="M12" t="n">
-        <v>14.30803511934966</v>
+        <v>14.29814507438506</v>
       </c>
       <c r="N12" t="n">
-        <v>456.0463500591678</v>
+        <v>454.2509201311568</v>
       </c>
       <c r="O12" t="n">
-        <v>21.35524174668055</v>
+        <v>21.31316307194117</v>
       </c>
       <c r="P12" t="n">
-        <v>350.3939092719928</v>
+        <v>350.0799994180807</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -34560,28 +35196,28 @@
         <v>0.0595</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1769513987512124</v>
+        <v>0.2107689422425369</v>
       </c>
       <c r="J13" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K13" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004691259784276092</v>
+        <v>0.006812487948391621</v>
       </c>
       <c r="M13" t="n">
-        <v>14.55416009364323</v>
+        <v>14.47341916780026</v>
       </c>
       <c r="N13" t="n">
-        <v>363.0113687555684</v>
+        <v>361.3298110667466</v>
       </c>
       <c r="O13" t="n">
-        <v>19.05285723338021</v>
+        <v>19.00867725715671</v>
       </c>
       <c r="P13" t="n">
-        <v>359.7277241644947</v>
+        <v>359.4159769676731</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -34637,28 +35273,28 @@
         <v>0.0684</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02924004636344534</v>
+        <v>0.1129151015111895</v>
       </c>
       <c r="J14" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K14" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L14" t="n">
-        <v>3.396737622329837e-05</v>
+        <v>0.0005215006296174218</v>
       </c>
       <c r="M14" t="n">
-        <v>28.18999845649594</v>
+        <v>27.91777855546814</v>
       </c>
       <c r="N14" t="n">
-        <v>1352.649732282229</v>
+        <v>1339.981263985919</v>
       </c>
       <c r="O14" t="n">
-        <v>36.77838675475351</v>
+        <v>36.60575452010134</v>
       </c>
       <c r="P14" t="n">
-        <v>351.6545036629681</v>
+        <v>350.8761706772493</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -34714,28 +35350,28 @@
         <v>0.0338</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6828403385475604</v>
+        <v>0.677849470380938</v>
       </c>
       <c r="J15" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K15" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03463026522662027</v>
+        <v>0.03545697704118089</v>
       </c>
       <c r="M15" t="n">
-        <v>20.32666788835128</v>
+        <v>20.17236075836627</v>
       </c>
       <c r="N15" t="n">
-        <v>707.618221748307</v>
+        <v>697.2387632363988</v>
       </c>
       <c r="O15" t="n">
-        <v>26.60109437125298</v>
+        <v>26.40527907893417</v>
       </c>
       <c r="P15" t="n">
-        <v>357.3824543148515</v>
+        <v>357.4282239520972</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -34791,28 +35427,28 @@
         <v>0.0484</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2435685033176017</v>
+        <v>0.2931045605536485</v>
       </c>
       <c r="J16" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K16" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00704276860707842</v>
+        <v>0.01058680008193136</v>
       </c>
       <c r="M16" t="n">
-        <v>14.01627879876824</v>
+        <v>13.93743620913983</v>
       </c>
       <c r="N16" t="n">
-        <v>445.324866014479</v>
+        <v>439.7625635069576</v>
       </c>
       <c r="O16" t="n">
-        <v>21.10272176792555</v>
+        <v>20.97051652933131</v>
       </c>
       <c r="P16" t="n">
-        <v>366.7896267801854</v>
+        <v>366.33224478821</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -34868,28 +35504,28 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7383166082959635</v>
+        <v>0.7881647364460357</v>
       </c>
       <c r="J17" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K17" t="n">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06244175233966753</v>
+        <v>0.07294831048488615</v>
       </c>
       <c r="M17" t="n">
-        <v>13.64321257798157</v>
+        <v>13.58228641830995</v>
       </c>
       <c r="N17" t="n">
-        <v>428.5380718188555</v>
+        <v>423.4451595960068</v>
       </c>
       <c r="O17" t="n">
-        <v>20.70116112247947</v>
+        <v>20.57778315552982</v>
       </c>
       <c r="P17" t="n">
-        <v>355.9379954050214</v>
+        <v>355.4665468763899</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -34945,28 +35581,28 @@
         <v>0.0955</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4515067102622042</v>
+        <v>0.4811808782766181</v>
       </c>
       <c r="J18" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K18" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04986070535233456</v>
+        <v>0.05811137568192259</v>
       </c>
       <c r="M18" t="n">
-        <v>11.3289337662904</v>
+        <v>11.22480822717543</v>
       </c>
       <c r="N18" t="n">
-        <v>201.7858668321735</v>
+        <v>199.4177231153336</v>
       </c>
       <c r="O18" t="n">
-        <v>14.20513522752154</v>
+        <v>14.12153402132125</v>
       </c>
       <c r="P18" t="n">
-        <v>362.735621600409</v>
+        <v>362.4476926479111</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -35022,28 +35658,28 @@
         <v>0.0764</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3327950589812451</v>
+        <v>0.3812450316894568</v>
       </c>
       <c r="J19" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K19" t="n">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02751009710075236</v>
+        <v>0.03663985709660411</v>
       </c>
       <c r="M19" t="n">
-        <v>11.27199959001634</v>
+        <v>11.24004647443886</v>
       </c>
       <c r="N19" t="n">
-        <v>206.7241010936372</v>
+        <v>206.7317864869801</v>
       </c>
       <c r="O19" t="n">
-        <v>14.37790322312809</v>
+        <v>14.37817048469589</v>
       </c>
       <c r="P19" t="n">
-        <v>365.0152199277478</v>
+        <v>364.5560268305026</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -35099,28 +35735,28 @@
         <v>0.0663</v>
       </c>
       <c r="I20" t="n">
-        <v>0.298263334102234</v>
+        <v>0.2681513451202759</v>
       </c>
       <c r="J20" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K20" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03015485286338249</v>
+        <v>0.02523299875090856</v>
       </c>
       <c r="M20" t="n">
-        <v>9.73346026122913</v>
+        <v>9.742005970705465</v>
       </c>
       <c r="N20" t="n">
-        <v>155.8675072102937</v>
+        <v>154.8410946239757</v>
       </c>
       <c r="O20" t="n">
-        <v>12.4846909136868</v>
+        <v>12.44351616802806</v>
       </c>
       <c r="P20" t="n">
-        <v>367.376017071409</v>
+        <v>367.6571419311893</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -35176,28 +35812,28 @@
         <v>0.0429</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3420037934210076</v>
+        <v>0.3312295904987578</v>
       </c>
       <c r="J21" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K21" t="n">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01803714493036879</v>
+        <v>0.01744480606328114</v>
       </c>
       <c r="M21" t="n">
-        <v>14.84533014154449</v>
+        <v>14.81955019571279</v>
       </c>
       <c r="N21" t="n">
-        <v>341.6313051657908</v>
+        <v>339.5140885673578</v>
       </c>
       <c r="O21" t="n">
-        <v>18.48327095418424</v>
+        <v>18.4259080798575</v>
       </c>
       <c r="P21" t="n">
-        <v>369.3238234779629</v>
+        <v>369.4247577134715</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -35253,28 +35889,28 @@
         <v>0.0683</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4326058698056012</v>
+        <v>0.4294480812305795</v>
       </c>
       <c r="J22" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K22" t="n">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L22" t="n">
-        <v>0.04949445330544688</v>
+        <v>0.05082471396034205</v>
       </c>
       <c r="M22" t="n">
-        <v>10.93339399350257</v>
+        <v>10.81655213706817</v>
       </c>
       <c r="N22" t="n">
-        <v>188.3842979283993</v>
+        <v>185.1069416271596</v>
       </c>
       <c r="O22" t="n">
-        <v>13.72531595003916</v>
+        <v>13.60540119317176</v>
       </c>
       <c r="P22" t="n">
-        <v>365.5831420016764</v>
+        <v>365.612508572609</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -35330,28 +35966,28 @@
         <v>0.1016</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3619496198560299</v>
+        <v>0.3817519166474766</v>
       </c>
       <c r="J23" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K23" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03899094752953569</v>
+        <v>0.04475740138633777</v>
       </c>
       <c r="M23" t="n">
-        <v>10.06506413581226</v>
+        <v>10.02329715487656</v>
       </c>
       <c r="N23" t="n">
-        <v>168.1969601788583</v>
+        <v>166.2066067589267</v>
       </c>
       <c r="O23" t="n">
-        <v>12.96907707506044</v>
+        <v>12.89211413069737</v>
       </c>
       <c r="P23" t="n">
-        <v>366.1341522511609</v>
+        <v>365.9448576511932</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -35407,28 +36043,28 @@
         <v>0.0926</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2827740121539717</v>
+        <v>0.3202734700693479</v>
       </c>
       <c r="J24" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K24" t="n">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01969640557082541</v>
+        <v>0.02597351582321616</v>
       </c>
       <c r="M24" t="n">
-        <v>10.96491153695581</v>
+        <v>10.90147071616307</v>
       </c>
       <c r="N24" t="n">
-        <v>204.7689548449819</v>
+        <v>202.8160458161968</v>
       </c>
       <c r="O24" t="n">
-        <v>14.30975034181176</v>
+        <v>14.24134985934258</v>
       </c>
       <c r="P24" t="n">
-        <v>367.4025630315706</v>
+        <v>367.0376624926913</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -35484,28 +36120,28 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3428928131556678</v>
+        <v>0.3280274835759579</v>
       </c>
       <c r="J25" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K25" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03078163956489455</v>
+        <v>0.02957056751057252</v>
       </c>
       <c r="M25" t="n">
-        <v>10.95255077007583</v>
+        <v>10.79130884308038</v>
       </c>
       <c r="N25" t="n">
-        <v>186.5406079365607</v>
+        <v>182.7177516932558</v>
       </c>
       <c r="O25" t="n">
-        <v>13.6579869650165</v>
+        <v>13.5173130352617</v>
       </c>
       <c r="P25" t="n">
-        <v>366.3424544492173</v>
+        <v>366.4872930532609</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -35561,28 +36197,28 @@
         <v>0.0818</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3257061804095154</v>
+        <v>0.3417367348612266</v>
       </c>
       <c r="J26" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K26" t="n">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L26" t="n">
-        <v>0.02627376361336098</v>
+        <v>0.03003441397831397</v>
       </c>
       <c r="M26" t="n">
-        <v>11.46971387963861</v>
+        <v>11.36307112481904</v>
       </c>
       <c r="N26" t="n">
-        <v>197.9604261911051</v>
+        <v>194.9664463240411</v>
       </c>
       <c r="O26" t="n">
-        <v>14.06984101513251</v>
+        <v>13.96303857776097</v>
       </c>
       <c r="P26" t="n">
-        <v>367.4620979819541</v>
+        <v>367.3045380160644</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -35638,28 +36274,28 @@
         <v>0.0687</v>
       </c>
       <c r="I27" t="n">
-        <v>0.09620629143816815</v>
+        <v>0.1139332214434053</v>
       </c>
       <c r="J27" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K27" t="n">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L27" t="n">
-        <v>0.001577904599025071</v>
+        <v>0.002295862443462027</v>
       </c>
       <c r="M27" t="n">
-        <v>13.32858447541385</v>
+        <v>13.1848037940886</v>
       </c>
       <c r="N27" t="n">
-        <v>297.1932238956225</v>
+        <v>292.5140919916813</v>
       </c>
       <c r="O27" t="n">
-        <v>17.23929302192008</v>
+        <v>17.10304335466882</v>
       </c>
       <c r="P27" t="n">
-        <v>370.6476673535273</v>
+        <v>370.4717461084366</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -35715,28 +36351,28 @@
         <v>0.057</v>
       </c>
       <c r="I28" t="n">
-        <v>0.290970303602753</v>
+        <v>0.290202262675483</v>
       </c>
       <c r="J28" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K28" t="n">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01762919829506826</v>
+        <v>0.01825566245012122</v>
       </c>
       <c r="M28" t="n">
-        <v>12.28641112400162</v>
+        <v>12.10267967027206</v>
       </c>
       <c r="N28" t="n">
-        <v>242.5118190551654</v>
+        <v>237.8227626390627</v>
       </c>
       <c r="O28" t="n">
-        <v>15.57279098476459</v>
+        <v>15.42150325484071</v>
       </c>
       <c r="P28" t="n">
-        <v>370.455261783641</v>
+        <v>370.4623276793502</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -35792,28 +36428,28 @@
         <v>0.07439999999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>0.542699014276751</v>
+        <v>0.5497824107191027</v>
       </c>
       <c r="J29" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K29" t="n">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L29" t="n">
-        <v>0.05133673091704039</v>
+        <v>0.05478143070639108</v>
       </c>
       <c r="M29" t="n">
-        <v>13.25472396637604</v>
+        <v>13.1142854496385</v>
       </c>
       <c r="N29" t="n">
-        <v>274.326628212553</v>
+        <v>269.7126318528876</v>
       </c>
       <c r="O29" t="n">
-        <v>16.56280858467407</v>
+        <v>16.42293006296037</v>
       </c>
       <c r="P29" t="n">
-        <v>365.6061400232597</v>
+        <v>365.5378182288042</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -35869,28 +36505,28 @@
         <v>0.136</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4747063428035851</v>
+        <v>0.4729739555446319</v>
       </c>
       <c r="J30" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K30" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L30" t="n">
-        <v>0.04192728510905963</v>
+        <v>0.04320996138385969</v>
       </c>
       <c r="M30" t="n">
-        <v>13.03781438189207</v>
+        <v>12.94010388389321</v>
       </c>
       <c r="N30" t="n">
-        <v>263.2311938970326</v>
+        <v>259.419586128841</v>
       </c>
       <c r="O30" t="n">
-        <v>16.22440118762577</v>
+        <v>16.10650757081873</v>
       </c>
       <c r="P30" t="n">
-        <v>367.3772758312847</v>
+        <v>367.3948115055608</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -35946,28 +36582,28 @@
         <v>0.0852</v>
       </c>
       <c r="I31" t="n">
-        <v>0.578566886016567</v>
+        <v>0.5650384613631072</v>
       </c>
       <c r="J31" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K31" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L31" t="n">
-        <v>0.05798937561231421</v>
+        <v>0.05736205828238317</v>
       </c>
       <c r="M31" t="n">
-        <v>12.97962896512799</v>
+        <v>12.88900041298704</v>
       </c>
       <c r="N31" t="n">
-        <v>273.7093231416945</v>
+        <v>269.7120205565681</v>
       </c>
       <c r="O31" t="n">
-        <v>16.54416281175009</v>
+        <v>16.42291145188843</v>
       </c>
       <c r="P31" t="n">
-        <v>362.4983791971097</v>
+        <v>362.6302413412895</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -36023,28 +36659,28 @@
         <v>0.0917</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4875553397970943</v>
+        <v>0.4664301537054819</v>
       </c>
       <c r="J32" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K32" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L32" t="n">
-        <v>0.03534936246604881</v>
+        <v>0.03363513226155923</v>
       </c>
       <c r="M32" t="n">
-        <v>14.10951333343422</v>
+        <v>14.0235584375454</v>
       </c>
       <c r="N32" t="n">
-        <v>328.4644911971621</v>
+        <v>324.4682514379332</v>
       </c>
       <c r="O32" t="n">
-        <v>18.12358935744137</v>
+        <v>18.01300228828979</v>
       </c>
       <c r="P32" t="n">
-        <v>353.5743577664177</v>
+        <v>353.7815171251348</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -36100,28 +36736,28 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5816538830691628</v>
+        <v>0.5696369701455988</v>
       </c>
       <c r="J33" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K33" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L33" t="n">
-        <v>0.04850414877250597</v>
+        <v>0.04861433012904959</v>
       </c>
       <c r="M33" t="n">
-        <v>14.11896125053045</v>
+        <v>13.95623807781068</v>
       </c>
       <c r="N33" t="n">
-        <v>340.2801848647563</v>
+        <v>334.2800518682307</v>
       </c>
       <c r="O33" t="n">
-        <v>18.44668492886341</v>
+        <v>18.28332715531368</v>
       </c>
       <c r="P33" t="n">
-        <v>344.4964346658022</v>
+        <v>344.6125786995047</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -36177,28 +36813,28 @@
         <v>0.047</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5933438298111994</v>
+        <v>0.6233753860251319</v>
       </c>
       <c r="J34" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K34" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01921998550422421</v>
+        <v>0.02187652630553916</v>
       </c>
       <c r="M34" t="n">
-        <v>19.89149353751876</v>
+        <v>19.80965218707934</v>
       </c>
       <c r="N34" t="n">
-        <v>949.4785359978694</v>
+        <v>937.5097511580436</v>
       </c>
       <c r="O34" t="n">
-        <v>30.81360959053433</v>
+        <v>30.61878102011972</v>
       </c>
       <c r="P34" t="n">
-        <v>334.1929651271487</v>
+        <v>333.9122963696066</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -36254,28 +36890,28 @@
         <v>0.0474</v>
       </c>
       <c r="I35" t="n">
-        <v>1.128605291111699</v>
+        <v>1.160236270348043</v>
       </c>
       <c r="J35" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K35" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L35" t="n">
-        <v>0.04923974339962189</v>
+        <v>0.05456163477502785</v>
       </c>
       <c r="M35" t="n">
-        <v>22.61551722795833</v>
+        <v>22.41536830320916</v>
       </c>
       <c r="N35" t="n">
-        <v>1256.439038596835</v>
+        <v>1230.526846207069</v>
       </c>
       <c r="O35" t="n">
-        <v>35.44628384749006</v>
+        <v>35.07886609066873</v>
       </c>
       <c r="P35" t="n">
-        <v>319.2020796179587</v>
+        <v>318.9023468585982</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -36331,28 +36967,28 @@
         <v>0.0369</v>
       </c>
       <c r="I36" t="n">
-        <v>1.175020295971196</v>
+        <v>1.17408662697105</v>
       </c>
       <c r="J36" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K36" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L36" t="n">
-        <v>0.07156265543204499</v>
+        <v>0.07501179677295677</v>
       </c>
       <c r="M36" t="n">
-        <v>21.36835976513333</v>
+        <v>21.23117445825946</v>
       </c>
       <c r="N36" t="n">
-        <v>970.6002243027899</v>
+        <v>952.8202812860578</v>
       </c>
       <c r="O36" t="n">
-        <v>31.15445753504288</v>
+        <v>30.86778711352756</v>
       </c>
       <c r="P36" t="n">
-        <v>319.037521667546</v>
+        <v>319.0460928275876</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -36408,28 +37044,28 @@
         <v>0.0732</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1520343709433296</v>
+        <v>0.3037151579745052</v>
       </c>
       <c r="J37" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K37" t="n">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0008533454784942496</v>
+        <v>0.003567844516501495</v>
       </c>
       <c r="M37" t="n">
-        <v>26.90858475351463</v>
+        <v>26.57191202228882</v>
       </c>
       <c r="N37" t="n">
-        <v>1408.875126619242</v>
+        <v>1391.951457252123</v>
       </c>
       <c r="O37" t="n">
-        <v>37.53498536857637</v>
+        <v>37.3088656655777</v>
       </c>
       <c r="P37" t="n">
-        <v>311.1347644434605</v>
+        <v>309.7310787147354</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -36466,7 +37102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL304"/>
+  <dimension ref="A1:AL309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81546,7 +82182,11 @@
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>-38.529305826050944,174.63319527445108</t>
+        </is>
+      </c>
       <c r="M303" t="inlineStr"/>
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr"/>
@@ -81616,10 +82256,22 @@
           <t>-38.51464402501071,174.63175170389422</t>
         </is>
       </c>
-      <c r="AH303" t="inlineStr"/>
-      <c r="AI303" t="inlineStr"/>
+      <c r="AH303" t="inlineStr">
+        <is>
+          <t>-38.51397167214256,174.63148182636226</t>
+        </is>
+      </c>
+      <c r="AI303" t="inlineStr">
+        <is>
+          <t>-38.513296294399666,174.6312283547014</t>
+        </is>
+      </c>
       <c r="AJ303" t="inlineStr"/>
-      <c r="AK303" t="inlineStr"/>
+      <c r="AK303" t="inlineStr">
+        <is>
+          <t>-38.51189381876705,174.63100242207048</t>
+        </is>
+      </c>
       <c r="AL303" t="inlineStr">
         <is>
           <t>L8</t>
@@ -81658,7 +82310,11 @@
           <t>-38.53279231261582,174.63394758311983</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr"/>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>-38.532088418833965,174.63395189172869</t>
+        </is>
+      </c>
       <c r="I304" t="inlineStr">
         <is>
           <t>-38.53138358222315,174.63397811361057</t>
@@ -81762,6 +82418,918 @@
         </is>
       </c>
     </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>-38.536310172286655,174.63396130640407</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>-38.5355973315196,174.63417589747326</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>-38.53490118572115,174.63399944333355</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr"/>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>-38.53349928837334,174.63387095385016</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>-38.53279486783155,174.63388775721455</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>-38.53209192055383,174.63386990566488</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>-38.531393812722065,174.63373858556335</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>-38.53069020692535,174.63373583179404</t>
+        </is>
+      </c>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>-38.52928793007436,174.63361430294844</t>
+        </is>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>-38.52858353089305,174.63362964385297</t>
+        </is>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>-38.527881642413725,174.6335860399091</t>
+        </is>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>-38.527186533162634,174.63347117410478</t>
+        </is>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>-38.5265027102088,174.6332469149483</t>
+        </is>
+      </c>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>-38.52579627431727,174.63326292416926</t>
+        </is>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>-38.52509959519581,174.63314222949916</t>
+        </is>
+      </c>
+      <c r="S305" t="inlineStr">
+        <is>
+          <t>-38.52438824317921,174.63320004573677</t>
+        </is>
+      </c>
+      <c r="T305" t="inlineStr">
+        <is>
+          <t>-38.52367414164594,174.6332912417972</t>
+        </is>
+      </c>
+      <c r="U305" t="inlineStr">
+        <is>
+          <t>-38.522992151211994,174.63299151678606</t>
+        </is>
+      </c>
+      <c r="V305" t="inlineStr">
+        <is>
+          <t>-38.52228493460703,174.6329987483622</t>
+        </is>
+      </c>
+      <c r="W305" t="inlineStr">
+        <is>
+          <t>-38.521600507479796,174.6327285145121</t>
+        </is>
+      </c>
+      <c r="X305" t="inlineStr">
+        <is>
+          <t>-38.52089006768007,174.63277481227672</t>
+        </is>
+      </c>
+      <c r="Y305" t="inlineStr">
+        <is>
+          <t>-38.520186148319176,174.63274166262383</t>
+        </is>
+      </c>
+      <c r="Z305" t="inlineStr">
+        <is>
+          <t>-38.51948578331951,174.63266516847236</t>
+        </is>
+      </c>
+      <c r="AA305" t="inlineStr">
+        <is>
+          <t>-38.518782871899774,174.6326195846816</t>
+        </is>
+      </c>
+      <c r="AB305" t="inlineStr">
+        <is>
+          <t>-38.51809337328009,174.63241066659558</t>
+        </is>
+      </c>
+      <c r="AC305" t="inlineStr">
+        <is>
+          <t>-38.517399407707465,174.63225603405388</t>
+        </is>
+      </c>
+      <c r="AD305" t="inlineStr">
+        <is>
+          <t>-38.516707566295864,174.63217967340336</t>
+        </is>
+      </c>
+      <c r="AE305" t="inlineStr">
+        <is>
+          <t>-38.51600545283151,174.6321848748936</t>
+        </is>
+      </c>
+      <c r="AF305" t="inlineStr">
+        <is>
+          <t>-38.515319675315794,174.6320036231778</t>
+        </is>
+      </c>
+      <c r="AG305" t="inlineStr">
+        <is>
+          <t>-38.51462533132109,174.63185331072762</t>
+        </is>
+      </c>
+      <c r="AH305" t="inlineStr">
+        <is>
+          <t>-38.513904724359925,174.63184570940652</t>
+        </is>
+      </c>
+      <c r="AI305" t="inlineStr">
+        <is>
+          <t>-38.513235941354395,174.63155639371314</t>
+        </is>
+      </c>
+      <c r="AJ305" t="inlineStr">
+        <is>
+          <t>-38.51255053286827,174.63135740677353</t>
+        </is>
+      </c>
+      <c r="AK305" t="inlineStr">
+        <is>
+          <t>-38.51183456789055,174.63132446626233</t>
+        </is>
+      </c>
+      <c r="AL305" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>-38.53630664186415,174.63404396714287</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>-38.53560127726739,174.63408351551342</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>-38.5348944531025,174.6341570747188</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>-38.53419486656518,174.6340610193709</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>-38.53349001127451,174.63408816001694</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>-38.53278363954816,174.6341506424599</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>-38.53208086730516,174.6341286917154</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>-38.531378490163725,174.63409733038603</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>-38.53068444625485,174.63387070750312</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>-38.52998909884012,174.63367443723172</t>
+        </is>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>-38.52928805127724,174.63361146514094</t>
+        </is>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>-38.528578282135506,174.63375253370535</t>
+        </is>
+      </c>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>-38.52787864386826,174.63365624564403</t>
+        </is>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>-38.52717549118894,174.63365959333302</t>
+        </is>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>-38.5264896996219,174.6334129723886</t>
+        </is>
+      </c>
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>-38.525807794923175,174.63312269728974</t>
+        </is>
+      </c>
+      <c r="R306" t="inlineStr">
+        <is>
+          <t>-38.52508884572759,174.6332730686099</t>
+        </is>
+      </c>
+      <c r="S306" t="inlineStr">
+        <is>
+          <t>-38.52440432144372,174.63300434612538</t>
+        </is>
+      </c>
+      <c r="T306" t="inlineStr">
+        <is>
+          <t>-38.52368283248347,174.6331854623003</t>
+        </is>
+      </c>
+      <c r="U306" t="inlineStr">
+        <is>
+          <t>-38.52297279454598,174.63322711483985</t>
+        </is>
+      </c>
+      <c r="V306" t="inlineStr">
+        <is>
+          <t>-38.522293568968884,174.6328936552551</t>
+        </is>
+      </c>
+      <c r="W306" t="inlineStr">
+        <is>
+          <t>-38.52160370311797,174.63268961825247</t>
+        </is>
+      </c>
+      <c r="X306" t="inlineStr">
+        <is>
+          <t>-38.52090322195691,174.63261470421065</t>
+        </is>
+      </c>
+      <c r="Y306" t="inlineStr">
+        <is>
+          <t>-38.5201930331609,174.63265786430563</t>
+        </is>
+      </c>
+      <c r="Z306" t="inlineStr">
+        <is>
+          <t>-38.51949130570712,174.6325979533948</t>
+        </is>
+      </c>
+      <c r="AA306" t="inlineStr">
+        <is>
+          <t>-38.51879278981998,174.63249887027743</t>
+        </is>
+      </c>
+      <c r="AB306" t="inlineStr">
+        <is>
+          <t>-38.51808847216498,174.63247031985657</t>
+        </is>
+      </c>
+      <c r="AC306" t="inlineStr">
+        <is>
+          <t>-38.517403958389956,174.6322006453856</t>
+        </is>
+      </c>
+      <c r="AD306" t="inlineStr">
+        <is>
+          <t>-38.51671354233891,174.6321262104485</t>
+        </is>
+      </c>
+      <c r="AE306" t="inlineStr">
+        <is>
+          <t>-38.5160115817246,174.63214722449558</t>
+        </is>
+      </c>
+      <c r="AF306" t="inlineStr">
+        <is>
+          <t>-38.51529910521297,174.63211542888865</t>
+        </is>
+      </c>
+      <c r="AG306" t="inlineStr">
+        <is>
+          <t>-38.51461722964174,174.6318973460641</t>
+        </is>
+      </c>
+      <c r="AH306" t="inlineStr">
+        <is>
+          <t>-38.513883195654856,174.6319627235019</t>
+        </is>
+      </c>
+      <c r="AI306" t="inlineStr">
+        <is>
+          <t>-38.51318696803236,174.63182257606638</t>
+        </is>
+      </c>
+      <c r="AJ306" t="inlineStr">
+        <is>
+          <t>-38.51248287987499,174.6317251161088</t>
+        </is>
+      </c>
+      <c r="AK306" t="inlineStr">
+        <is>
+          <t>-38.51181728248512,174.63141841601345</t>
+        </is>
+      </c>
+      <c r="AL306" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>-38.53630564061595,174.63406740995563</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>-38.535604391296985,174.63401060539593</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>-38.53490584885681,174.6338902620061</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>-38.53420091575674,174.6339193878114</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>-38.533493329220335,174.63401047752095</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>-38.53279401772699,174.63390766100494</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>-38.532085757150575,174.6340142090438</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>-38.5313867646988,174.63390360311516</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>-38.530688676041706,174.63377167503</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>-38.52998485446557,174.63377381234878</t>
+        </is>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>-38.52928721698698,174.63363099892786</t>
+        </is>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>-38.528582581919395,174.63365186252318</t>
+        </is>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>-38.52788407350377,174.6335291194302</t>
+        </is>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>-38.52719860704309,174.63326514053614</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>-38.52649847173405,174.63330101201882</t>
+        </is>
+      </c>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>-38.52579089753106,174.63332836879437</t>
+        </is>
+      </c>
+      <c r="R307" t="inlineStr">
+        <is>
+          <t>-38.52508738839965,174.63329080660276</t>
+        </is>
+      </c>
+      <c r="S307" t="inlineStr">
+        <is>
+          <t>-38.52439262773395,174.6331466787091</t>
+        </is>
+      </c>
+      <c r="T307" t="inlineStr">
+        <is>
+          <t>-38.52368882417017,174.6331125345067</t>
+        </is>
+      </c>
+      <c r="U307" t="inlineStr">
+        <is>
+          <t>-38.52300330872736,174.6328557113413</t>
+        </is>
+      </c>
+      <c r="V307" t="inlineStr">
+        <is>
+          <t>-38.52228894253703,174.6329499660009</t>
+        </is>
+      </c>
+      <c r="W307" t="inlineStr">
+        <is>
+          <t>-38.52158270632162,174.63294518143533</t>
+        </is>
+      </c>
+      <c r="X307" t="inlineStr">
+        <is>
+          <t>-38.52089181389083,174.63275355832445</t>
+        </is>
+      </c>
+      <c r="Y307" t="inlineStr">
+        <is>
+          <t>-38.520183489954604,174.6327740185032</t>
+        </is>
+      </c>
+      <c r="Z307" t="inlineStr">
+        <is>
+          <t>-38.51949857779634,174.63250944130397</t>
+        </is>
+      </c>
+      <c r="AA307" t="inlineStr">
+        <is>
+          <t>-38.51879842501777,174.63243028166698</t>
+        </is>
+      </c>
+      <c r="AB307" t="inlineStr">
+        <is>
+          <t>-38.518093720011755,174.6324064463836</t>
+        </is>
+      </c>
+      <c r="AC307" t="inlineStr">
+        <is>
+          <t>-38.51739546107039,174.6323040703153</t>
+        </is>
+      </c>
+      <c r="AD307" t="inlineStr">
+        <is>
+          <t>-38.51669617113577,174.63228161630673</t>
+        </is>
+      </c>
+      <c r="AE307" t="inlineStr">
+        <is>
+          <t>-38.51600346557386,174.6321970827971</t>
+        </is>
+      </c>
+      <c r="AF307" t="inlineStr">
+        <is>
+          <t>-38.51530984221723,174.63205706959124</t>
+        </is>
+      </c>
+      <c r="AG307" t="inlineStr">
+        <is>
+          <t>-38.5146028750755,174.63197536768794</t>
+        </is>
+      </c>
+      <c r="AH307" t="inlineStr">
+        <is>
+          <t>-38.5139448438618,174.6316276476371</t>
+        </is>
+      </c>
+      <c r="AI307" t="inlineStr">
+        <is>
+          <t>-38.513260530502514,174.6314227441244</t>
+        </is>
+      </c>
+      <c r="AJ307" t="inlineStr">
+        <is>
+          <t>-38.51258357149141,174.63117783185905</t>
+        </is>
+      </c>
+      <c r="AK307" t="inlineStr">
+        <is>
+          <t>-38.511850161294184,174.63123971250275</t>
+        </is>
+      </c>
+      <c r="AL307" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>-38.53630666306316,174.63404347079668</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>-38.53559961750046,174.63412237591558</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>-38.534894590627026,174.63415385489512</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>-38.53419708622295,174.63400905031736</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>-38.53349300860448,174.63401798409802</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>-38.5327900144719,174.634001389524</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>-38.53208590969239,174.63401063764226</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>-38.5313807019196,174.6340455484651</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>-38.53068100142563,174.63395136021913</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>-38.52998528004821,174.63376384811374</t>
+        </is>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>-38.52927928590374,174.63381669076858</t>
+        </is>
+      </c>
+      <c r="M308" t="inlineStr"/>
+      <c r="N308" t="inlineStr"/>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>-38.527175261051504,174.63366352032148</t>
+        </is>
+      </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>-38.5264833060174,174.63349457447345</t>
+        </is>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>-38.52579997753083,174.63321784950324</t>
+        </is>
+      </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>-38.52509804416993,174.63316110820531</t>
+        </is>
+      </c>
+      <c r="S308" t="inlineStr">
+        <is>
+          <t>-38.5243990142034,174.63306894464498</t>
+        </is>
+      </c>
+      <c r="T308" t="inlineStr">
+        <is>
+          <t>-38.52367869325746,174.63323584254596</t>
+        </is>
+      </c>
+      <c r="U308" t="inlineStr">
+        <is>
+          <t>-38.52297740280871,174.63317102628585</t>
+        </is>
+      </c>
+      <c r="V308" t="inlineStr">
+        <is>
+          <t>-38.52228818343726,174.632959205373</t>
+        </is>
+      </c>
+      <c r="W308" t="inlineStr">
+        <is>
+          <t>-38.52159125317647,174.6328411539516</t>
+        </is>
+      </c>
+      <c r="X308" t="inlineStr">
+        <is>
+          <t>-38.52090011692996,174.63265249747656</t>
+        </is>
+      </c>
+      <c r="Y308" t="inlineStr">
+        <is>
+          <t>-38.52019241152836,174.63266543048846</t>
+        </is>
+      </c>
+      <c r="Z308" t="inlineStr">
+        <is>
+          <t>-38.51949569012086,174.63254458868855</t>
+        </is>
+      </c>
+      <c r="AA308" t="inlineStr">
+        <is>
+          <t>-38.518792043247,174.63250795712682</t>
+        </is>
+      </c>
+      <c r="AB308" t="inlineStr">
+        <is>
+          <t>-38.51809563171875,174.6323831781873</t>
+        </is>
+      </c>
+      <c r="AC308" t="inlineStr">
+        <is>
+          <t>-38.517405726611045,174.63217912338075</t>
+        </is>
+      </c>
+      <c r="AD308" t="inlineStr">
+        <is>
+          <t>-38.51671847347275,174.63208209530356</t>
+        </is>
+      </c>
+      <c r="AE308" t="inlineStr">
+        <is>
+          <t>-38.51603680485312,174.63199227547017</t>
+        </is>
+      </c>
+      <c r="AF308" t="inlineStr">
+        <is>
+          <t>-38.51533837594025,174.63190197818057</t>
+        </is>
+      </c>
+      <c r="AG308" t="inlineStr">
+        <is>
+          <t>-38.51462934343984,174.6318315034838</t>
+        </is>
+      </c>
+      <c r="AH308" t="inlineStr"/>
+      <c r="AI308" t="inlineStr">
+        <is>
+          <t>-38.513206976500406,174.63171382543624</t>
+        </is>
+      </c>
+      <c r="AJ308" t="inlineStr">
+        <is>
+          <t>-38.51250462756079,174.63160691326823</t>
+        </is>
+      </c>
+      <c r="AK308" t="inlineStr">
+        <is>
+          <t>-38.51181682495123,174.6314209027986</t>
+        </is>
+      </c>
+      <c r="AL308" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-15 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr"/>
+      <c r="C309" t="inlineStr"/>
+      <c r="D309" t="inlineStr"/>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>-38.53420969216186,174.63371389600516</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>-38.53350526015432,174.63373113059205</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>-38.53280339369346,174.63368813387248</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>-38.532095331051195,174.63379005410292</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>-38.53139359205021,174.6337437523046</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>-38.530690653003965,174.63372538751543</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>-38.5299931507289,174.6335795670044</t>
+        </is>
+      </c>
+      <c r="L309" t="inlineStr"/>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>-38.52859656662621,174.63332442338614</t>
+        </is>
+      </c>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>-38.52789344052427,174.6333097980228</t>
+        </is>
+      </c>
+      <c r="O309" t="inlineStr"/>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>-38.52650930930353,174.63316268784945</t>
+        </is>
+      </c>
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>-38.52580911499588,174.63310662945347</t>
+        </is>
+      </c>
+      <c r="R309" t="inlineStr">
+        <is>
+          <t>-38.525105541547966,174.6330698516112</t>
+        </is>
+      </c>
+      <c r="S309" t="inlineStr">
+        <is>
+          <t>-38.524413516395164,174.6328924262252</t>
+        </is>
+      </c>
+      <c r="T309" t="inlineStr">
+        <is>
+          <t>-38.523696180949976,174.63302299071634</t>
+        </is>
+      </c>
+      <c r="U309" t="inlineStr">
+        <is>
+          <t>-38.52301123429706,174.63275924284196</t>
+        </is>
+      </c>
+      <c r="V309" t="inlineStr">
+        <is>
+          <t>-38.52230358083758,174.6327717943626</t>
+        </is>
+      </c>
+      <c r="W309" t="inlineStr">
+        <is>
+          <t>-38.52160004359576,174.63273416074298</t>
+        </is>
+      </c>
+      <c r="X309" t="inlineStr">
+        <is>
+          <t>-38.520909122724184,174.63254288178672</t>
+        </is>
+      </c>
+      <c r="Y309" t="inlineStr">
+        <is>
+          <t>-38.52018854115205,174.63271253852798</t>
+        </is>
+      </c>
+      <c r="Z309" t="inlineStr">
+        <is>
+          <t>-38.519507301002605,174.63240326587533</t>
+        </is>
+      </c>
+      <c r="AA309" t="inlineStr">
+        <is>
+          <t>-38.51880521906397,174.6323475875113</t>
+        </is>
+      </c>
+      <c r="AB309" t="inlineStr">
+        <is>
+          <t>-38.51810212586555,174.63230413474525</t>
+        </is>
+      </c>
+      <c r="AC309" t="inlineStr">
+        <is>
+          <t>-38.51738498346482,174.63243159669008</t>
+        </is>
+      </c>
+      <c r="AD309" t="inlineStr">
+        <is>
+          <t>-38.516682697348706,174.6324021538731</t>
+        </is>
+      </c>
+      <c r="AE309" t="inlineStr"/>
+      <c r="AF309" t="inlineStr">
+        <is>
+          <t>-38.51526692826605,174.6322903205764</t>
+        </is>
+      </c>
+      <c r="AG309" t="inlineStr">
+        <is>
+          <t>-38.51458060516956,174.63209641107804</t>
+        </is>
+      </c>
+      <c r="AH309" t="inlineStr"/>
+      <c r="AI309" t="inlineStr">
+        <is>
+          <t>-38.513205476895884,174.63172197615305</t>
+        </is>
+      </c>
+      <c r="AJ309" t="inlineStr">
+        <is>
+          <t>-38.51255756515343,174.63131918431404</t>
+        </is>
+      </c>
+      <c r="AK309" t="inlineStr">
+        <is>
+          <t>-38.51178954276464,174.63156918618247</t>
+        </is>
+      </c>
+      <c r="AL309" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
